--- a/Resultados/Mercado mundial - Azucar, caña.xlsx
+++ b/Resultados/Mercado mundial - Azucar, caña.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Brazil" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="China, mainland" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Thailand" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Pakistan" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tailandia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pakistán" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Thailand'!$B$12:$B$73</f>
+              <f>'Tailandia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Thailand'!$C$12:$C$73</f>
+              <f>'Tailandia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Pakistan'!$B$12:$B$73</f>
+              <f>'Pakistán'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Pakistan'!$C$12:$C$73</f>
+              <f>'Pakistán'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>27028428</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>74.95060000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2025797465.39</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>74.95060000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1985199.46</v>
@@ -2160,10 +2160,10 @@
         <v>26176311</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>73.55889999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1925501392.21</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>73.55889999999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2217858.26</v>
@@ -2182,10 +2182,10 @@
         <v>25835986</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>72.1251</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1863423749.73</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>72.1251</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1827973.88</v>
@@ -2204,10 +2204,10 @@
         <v>26084333</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>72.087</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1880340058.38</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>72.087</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1773783.38</v>
@@ -2226,10 +2226,10 @@
         <v>26942728</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>72.71889999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1959245018.3</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>72.71889999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1474226.08</v>
@@ -2248,10 +2248,10 @@
         <v>26360820</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>73.31280000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1932584661.12</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>73.31280000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1240361.92</v>
@@ -2270,10 +2270,10 @@
         <v>26120075</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>70.29819999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1836195563.18</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>70.29819999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>165471.14</v>
@@ -2292,10 +2292,10 @@
         <v>26484385</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>70.9785</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1879823009.19</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>70.9785</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>163065.48</v>
@@ -2314,10 +2314,10 @@
         <v>26441711</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>70.87139999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1873961423.13</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>70.87139999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>163257.5</v>
@@ -2336,10 +2336,10 @@
         <v>26965135</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>69.9247</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1885530237.95</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>69.9247</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>161620.48</v>
@@ -2358,10 +2358,10 @@
         <v>26757275</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>71.0625</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1901439482.21</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>71.0625</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -2376,10 +2376,10 @@
         <v>25898392</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>70.56310000000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1827471511.92</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>70.56310000000001</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -2394,10 +2394,10 @@
         <v>25401398</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>70.4676</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1789976756.67</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>70.4676</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -2412,10 +2412,10 @@
         <v>23542690</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>71.1849</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1675883618.97</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>71.1849</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -2430,10 +2430,10 @@
         <v>23575431</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>70.9443</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1672541437.33</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>70.9443</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -2448,10 +2448,10 @@
         <v>23974950</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>71.59480000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1716482480.76</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>71.59480000000001</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
         <v>22585253</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>70.9409</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1602217594.69</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>70.9409</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -2484,10 +2484,10 @@
         <v>20480032</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>69.20489999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1417317813.34</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>69.20489999999999</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -2502,10 +2502,10 @@
         <v>19570187</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>66.748</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1306270271.1</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>66.748</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         <v>20018924</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>66.5915</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1333090823.21</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>66.5915</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -2538,10 +2538,10 @@
         <v>20452118</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>67.0676</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1371673730.84</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>67.0676</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
         <v>20164681</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>65.79689999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1326773001.31</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>65.79689999999999</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -2574,10 +2574,10 @@
         <v>19498967</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>64.48390000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1257368580.44</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>64.48390000000001</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         <v>19310607</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>64.886</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1252988142.16</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>64.886</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -2610,10 +2610,10 @@
         <v>19510537</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>65.71250000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1282085247.2</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>65.71250000000001</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -2628,10 +2628,10 @@
         <v>19499384</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>64.8137</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1263826829.34</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>64.8137</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -2646,10 +2646,10 @@
         <v>19466010</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>64.0179</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1246173613.02</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>64.0179</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -2664,10 +2664,10 @@
         <v>19320519</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>63.0788</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1218714246.7</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>63.0788</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -2682,10 +2682,10 @@
         <v>18436271</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>63.0845</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1163042936.93</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>63.0845</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -2700,10 +2700,10 @@
         <v>17544351</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>61.8085</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1084390396.26</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>61.8085</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -2718,10 +2718,10 @@
         <v>17244299</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>59.1964</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1020801159.4</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>59.1964</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         <v>18038277</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>61.401</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1107567861.44</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>61.401</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -2754,10 +2754,10 @@
         <v>17694698</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>61.4039</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1086523541</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>61.4039</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         <v>17079389</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>61.6531</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1052997467</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>61.6531</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -2790,10 +2790,10 @@
         <v>16535892</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>61.563</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1017998753</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>61.563</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -2808,10 +2808,10 @@
         <v>16390026</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>60.5846</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>992982481</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>60.5846</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         <v>16310461</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>60.71680000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>990319218</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>60.71680000000001</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -2844,10 +2844,10 @@
         <v>15826281</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>59.0612</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>934719152</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>59.0612</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         <v>15947834</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>58.5166</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>933213554</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>58.5166</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -2880,10 +2880,10 @@
         <v>15635458</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>59.4654</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>929768210</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>59.4654</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -2898,10 +2898,10 @@
         <v>15380780</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>58.7541</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>903684316</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>58.7541</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -2916,10 +2916,10 @@
         <v>15055190</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>60.2495</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>907067842</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>60.2495</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -2934,10 +2934,10 @@
         <v>13686559</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>58.4226</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>799604175</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>58.4226</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -2952,10 +2952,10 @@
         <v>13284801</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>55.2879</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>734489160</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>55.2879</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         <v>13733124</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>56.0867</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>770245138</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>56.0867</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
         <v>13690012</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>56.568</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>774416818</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>56.568</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -3006,10 +3006,10 @@
         <v>13029250</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>56.4007</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>734858248</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>56.4007</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -3024,10 +3024,10 @@
         <v>12575248</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>54.6476</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>687207500</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>54.6476</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -3042,10 +3042,10 @@
         <v>12198427</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>53.7623</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>655815754</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>53.7623</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         <v>11932286</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>54.3497</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>648516459</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>54.3497</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         <v>11149183</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>53.836</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>600227107</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>53.836</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -3096,10 +3096,10 @@
         <v>10871046</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>52.3506</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>569105532</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>52.3506</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -3114,10 +3114,10 @@
         <v>11055348</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>52.6537</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>582105390</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>52.6537</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -3132,10 +3132,10 @@
         <v>11113279</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>54.7648</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>608616069</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>54.7648</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         <v>10046896</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>53.5743</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>538255703</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>53.5743</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         <v>9586093</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>52.7944</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>506091846</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>52.7944</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -3186,10 +3186,10 @@
         <v>9949013</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>52.155</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>518890863</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>52.155</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -3203,10 +3203,10 @@
         <v>10375297</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>51.2268</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>531492794</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>51.2268</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         <v>10163096</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>52.2624</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>531147459</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>52.2624</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         <v>9327342</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>51.5303</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>480640741</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>51.5303</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         <v>9036376</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>48.6699</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>439799877</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>48.6699</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -3271,10 +3271,10 @@
         <v>9021967</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>48.408</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>436735615</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>48.408</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -3288,10 +3288,10 @@
         <v>8910248</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>50.265</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>447873497</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>50.265</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -3574,8 +3574,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3670,7 +3670,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3698,7 +3698,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3712,7 +3712,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3726,7 +3726,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3740,7 +3740,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3796,7 +3796,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3904,7 +3904,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4003,7 +4003,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>República Democrática Popular Lao</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4045,7 +4045,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4059,7 +4059,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4073,7 +4073,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Líbano</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4087,7 +4087,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Chipre</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4101,7 +4101,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4325,8 +4325,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4421,7 +4421,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4435,7 +4435,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4449,7 +4449,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4463,7 +4463,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4477,7 +4477,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4505,7 +4505,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suiza</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4519,7 +4519,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Túnez</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4533,7 +4533,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4720,7 +4720,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4799,10 +4799,10 @@
         <v>10065599</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>77.74860000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>782585836</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>77.74860000000001</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -4819,10 +4819,10 @@
         <v>9886621</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>73.4379</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>726052712</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>73.4379</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -4839,10 +4839,10 @@
         <v>9971370</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>71.7734</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>715679276</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>71.7734</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -4859,10 +4859,10 @@
         <v>9996134</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>75.63630000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>756070576</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>75.63630000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -4879,10 +4879,10 @@
         <v>10092430</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>74.657</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>753470465</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>74.657</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -4899,10 +4899,10 @@
         <v>10024104</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>74.57589999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>747556774</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>74.57589999999999</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -4919,10 +4919,10 @@
         <v>10189208</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>74.4559</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>758646205</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>74.4559</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -4939,10 +4939,10 @@
         <v>10223894</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>75.1763</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>768594154</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>75.1763</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -4959,10 +4959,10 @@
         <v>10111376</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>74.2026</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>750290277</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>74.2026</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -4979,10 +4979,10 @@
         <v>10419678</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>70.646</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>736108487</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>70.646</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.01</v>
@@ -5001,10 +5001,10 @@
         <v>10195166</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>75.3387</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>768090444</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>75.3387</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -5019,10 +5019,10 @@
         <v>9705388</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>74.29660000000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>721077287</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>74.29660000000001</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -5037,10 +5037,10 @@
         <v>9601316</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>76.4485</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>734006059</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>76.4485</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -5055,10 +5055,10 @@
         <v>9076706</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>79.0445</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>717463793</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>79.0445</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -5073,10 +5073,10 @@
         <v>8617555</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>80.2555</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>691606147</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>80.2555</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -5091,10 +5091,10 @@
         <v>8140089</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>79.2743</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>645300182</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>79.2743</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -5109,10 +5109,10 @@
         <v>7080920</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>77.6322</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>549707314</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>77.6322</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -5127,10 +5127,10 @@
         <v>6355498</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>75.1177</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>477410656</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>75.1177</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -5145,10 +5145,10 @@
         <v>5805518</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>72.85419999999999</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>422956646</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>72.85419999999999</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -5163,10 +5163,10 @@
         <v>5631741</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>73.726</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>415205835</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>73.726</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -5181,10 +5181,10 @@
         <v>5371020</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>73.7313</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>396012158</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>73.7313</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -5199,10 +5199,10 @@
         <v>5100405</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>71.44319999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>364389416</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>71.44319999999999</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -5217,10 +5217,10 @@
         <v>4957897</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>69.44330000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>344292922</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>69.44330000000001</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -5235,10 +5235,10 @@
         <v>4804511</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>67.8781</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>326121011</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>67.8781</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -5253,10 +5253,10 @@
         <v>4898844</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>68.14830000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>333847720</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>68.14830000000001</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -5271,10 +5271,10 @@
         <v>4985819</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>69.2474</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>345254972</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>69.2474</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -5289,10 +5289,10 @@
         <v>4814084</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>68.8839</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>331612687</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>68.8839</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -5307,10 +5307,10 @@
         <v>4750296</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>66.755</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>317105981</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>66.755</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -5325,10 +5325,10 @@
         <v>4559062</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>66.61450000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>303699497</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>66.61450000000001</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -5343,10 +5343,10 @@
         <v>4345260</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>67.2231</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>292101835</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>67.2231</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -5361,10 +5361,10 @@
         <v>3863702</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>63.28919999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>244530708</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>63.28919999999999</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -5379,10 +5379,10 @@
         <v>4202604</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>64.5968</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>271474875</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>64.5968</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -5397,10 +5397,10 @@
         <v>4210954</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>61.9546</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>260887893</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>61.9546</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -5415,10 +5415,10 @@
         <v>4272600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>61.4788</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>262674144</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>61.4788</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -5433,10 +5433,10 @@
         <v>4067700</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>62.0228</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>252290000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>62.0228</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -5451,10 +5451,10 @@
         <v>4113230</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>62.7959</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>258294000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>62.7959</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -5469,10 +5469,10 @@
         <v>4308680</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>62.317</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>268504000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>62.317</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -5487,10 +5487,10 @@
         <v>3944680</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>60.4467</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>238443008</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>60.4467</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -5505,10 +5505,10 @@
         <v>3912042</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>63.1894</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>247199472</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>63.1894</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -5523,10 +5523,10 @@
         <v>3655810</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>60.8122</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>222317840</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>60.8122</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -5541,10 +5541,10 @@
         <v>3478785</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>62.1013</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>216036960</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>62.1013</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -5559,10 +5559,10 @@
         <v>3084297</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>60.5151</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>186646608</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>60.5151</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -5577,10 +5577,10 @@
         <v>2825879</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>55.1772</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>155924112</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>55.1772</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -5595,10 +5595,10 @@
         <v>2607628</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>57.006</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>148650560</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>57.006</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -5613,10 +5613,10 @@
         <v>2536976</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>54.7498</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>138898880</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>54.7498</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -5631,10 +5631,10 @@
         <v>2391455</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>54.0027</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>129144944</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>54.0027</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -5649,10 +5649,10 @@
         <v>2270036</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>52.8986</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>120081696</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>52.8986</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -5667,10 +5667,10 @@
         <v>2093483</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>49.28319999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>103173456</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>49.28319999999999</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -5685,10 +5685,10 @@
         <v>1969227</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>46.4774</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>91524560</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>46.4774</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -5703,10 +5703,10 @@
         <v>2056691</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>46.4939</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>95623680</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>46.4939</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -5721,10 +5721,10 @@
         <v>1958776</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>46.9651</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>91994032</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>46.9651</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -5739,10 +5739,10 @@
         <v>1802648</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>47.2118</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>85106224</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>47.2118</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -5757,10 +5757,10 @@
         <v>1728003</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>46.5164</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>80380400</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>46.5164</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -5775,10 +5775,10 @@
         <v>1725121</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>46.2303</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>79752944</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>46.2303</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -5793,10 +5793,10 @@
         <v>1672101</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>45.0015</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>75247088</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>45.0015</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -5811,10 +5811,10 @@
         <v>1686727</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>45.4196</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>76610496</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>45.4196</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -5829,10 +5829,10 @@
         <v>1680763</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>45.864</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>77086528</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>45.864</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -5846,10 +5846,10 @@
         <v>1635503</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>46.339</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>75787520</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>46.339</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -5863,10 +5863,10 @@
         <v>1705081</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>44.4864</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>75852864</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>44.4864</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -5880,10 +5880,10 @@
         <v>1519491</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>43.6982</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>66398976</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>43.6982</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -5897,10 +5897,10 @@
         <v>1509011</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>42.2283</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>63722896</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>42.2283</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -5914,10 +5914,10 @@
         <v>1466619</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>42.6386</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>62534512</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>42.6386</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -5931,10 +5931,10 @@
         <v>1366640</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>43.4477</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>59377392</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>43.4477</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -6266,7 +6266,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6345,10 +6345,10 @@
         <v>5885317</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>83.34869999999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>490533351.06</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>83.34869999999999</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.3</v>
@@ -6367,10 +6367,10 @@
         <v>5175410</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>84.9063</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>439424890</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>84.9063</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6387,10 +6387,10 @@
         <v>4851230</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>83.56619999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>405398710</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>83.56619999999999</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6407,10 +6407,10 @@
         <v>4602680</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>80.4966</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>370500300</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>80.4966</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6427,10 +6427,10 @@
         <v>5061090</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>80.1045</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>405416180</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>80.1045</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6447,10 +6447,10 @@
         <v>4737060</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>80.19839999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>379904850</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>80.19839999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.1</v>
@@ -6469,10 +6469,10 @@
         <v>4435690</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>69.00139999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>306069000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>69.00139999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.45</v>
@@ -6491,10 +6491,10 @@
         <v>4950000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>70.3935</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>348448000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>70.3935</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6511,10 +6511,10 @@
         <v>5070000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>71.46610000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>362333000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>71.46610000000001</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6531,10 +6531,10 @@
         <v>4990000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>70.56950000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>352142000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>70.56950000000001</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6551,10 +6551,10 @@
         <v>5000000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>341200000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>68.23999999999999</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -6569,10 +6569,10 @@
         <v>5040000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>71.6343</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>361036992</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>71.6343</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -6587,10 +6587,10 @@
         <v>4944390</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>69.2466</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>342382016</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>69.2466</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -6605,10 +6605,10 @@
         <v>4174600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>70.01910000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>292301600</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>70.01910000000001</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -6623,10 +6623,10 @@
         <v>4415400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>64.5535</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>285029312</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>64.5535</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -6641,10 +6641,10 @@
         <v>5055200</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>68.8772</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>348187904</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>68.8772</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         <v>5150000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>69.033</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>355519712</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>69.033</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -6677,10 +6677,10 @@
         <v>4201100</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>66.9281</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>281171808</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>66.9281</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -6695,10 +6695,10 @@
         <v>3661500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>64.7517</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>237088400</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>64.7517</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -6713,10 +6713,10 @@
         <v>3938400</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>59.3799</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>233861792</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>59.3799</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -6731,10 +6731,10 @@
         <v>4520300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>63.5761</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>287383200</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>63.5761</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -6749,10 +6749,10 @@
         <v>4411600</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>67.36960000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>297207808</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>67.36960000000001</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -6767,10 +6767,10 @@
         <v>4315700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>68.5766</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>295956000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>68.5766</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -6785,10 +6785,10 @@
         <v>4219700</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>70.9349</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>299323904</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>70.9349</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -6803,10 +6803,10 @@
         <v>4054900</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>76.53280000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>310332800</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>76.53280000000001</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -6821,10 +6821,10 @@
         <v>3929800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>71.13380000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>279541504</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>71.13380000000001</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -6839,10 +6839,10 @@
         <v>4174100</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>66.4958</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>277560000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>66.4958</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -6857,10 +6857,10 @@
         <v>4150000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>67.7349</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>281100000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>67.7349</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -6875,10 +6875,10 @@
         <v>3870000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>71.199</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>275540000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>71.199</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -6893,10 +6893,10 @@
         <v>3420000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>67.155</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>229670000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>67.155</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -6911,10 +6911,10 @@
         <v>3570000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>63.8739</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>228030000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>63.8739</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -6929,10 +6929,10 @@
         <v>3840000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>66.14580000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>254000000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>66.14580000000001</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -6947,10 +6947,10 @@
         <v>3686000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>65.39490000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>241045504</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>65.39490000000001</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -6965,10 +6965,10 @@
         <v>3439000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>65.5915</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>225569200</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>65.5915</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -6983,10 +6983,10 @@
         <v>3328900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>60.9922</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>203036800</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>60.9922</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -7001,10 +7001,10 @@
         <v>3278600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>60.0064</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>196736896</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>60.0064</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -7019,10 +7019,10 @@
         <v>3078700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>60.4442</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>186089504</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>60.4442</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -7037,10 +7037,10 @@
         <v>2862000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>59.9864</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>171680992</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>59.9864</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -7055,10 +7055,10 @@
         <v>2953200</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>57.6728</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>170319200</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>57.6728</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -7073,10 +7073,10 @@
         <v>3109700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>55.9784</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>174076000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>55.9784</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -7091,10 +7091,10 @@
         <v>3357600</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>56.4408</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>189505600</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>56.4408</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -7109,10 +7109,10 @@
         <v>3193300</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>58.3589</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>186357600</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>58.3589</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -7127,10 +7127,10 @@
         <v>2666600</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>57.8444</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>154248000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>57.8444</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -7145,10 +7145,10 @@
         <v>2610200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>49.35769999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>128833408</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>49.35769999999999</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -7163,10 +7163,10 @@
         <v>3087800</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>49.1143</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>151655104</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>49.1143</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -7181,10 +7181,10 @@
         <v>3151100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>56.1598</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>176965008</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>56.1598</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -7199,10 +7199,10 @@
         <v>2866200</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>53.3832</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>153007008</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>53.3832</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -7217,10 +7217,10 @@
         <v>2762200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>50.9027</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>140603504</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>50.9027</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -7235,10 +7235,10 @@
         <v>2894200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>49.8545</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>144288896</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>49.8545</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -7253,10 +7253,10 @@
         <v>2752100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>51.1628</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>140805008</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>51.1628</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -7271,10 +7271,10 @@
         <v>2451600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>50.9327</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>124866704</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>50.9327</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -7289,10 +7289,10 @@
         <v>2390400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>47.5107</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>113569504</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>47.5107</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -7307,10 +7307,10 @@
         <v>2615000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>48.3243</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>126368000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>48.3243</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -7325,10 +7325,10 @@
         <v>2748000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>49.1354</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>135024000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>49.1354</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -7343,10 +7343,10 @@
         <v>2532200</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>49.2363</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>124676096</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>49.2363</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -7361,10 +7361,10 @@
         <v>2047000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>46.6536</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>95500000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>46.6536</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -7379,10 +7379,10 @@
         <v>2301000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>40.342</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>92827008</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>40.342</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -7396,10 +7396,10 @@
         <v>2836000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>123990000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>43.72</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -7413,10 +7413,10 @@
         <v>2602900</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>46.9004</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>122077008</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>46.9004</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -7430,10 +7430,10 @@
         <v>2249000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>46.3428</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>104225008</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>46.3428</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -7447,10 +7447,10 @@
         <v>2242000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>40.996</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>91913008</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>40.996</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -7464,10 +7464,10 @@
         <v>2456000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>42.3318</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>103967008</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>42.3318</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -7481,10 +7481,10 @@
         <v>2413000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>45.5868</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>110001008</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>45.5868</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -7816,7 +7816,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7895,10 +7895,10 @@
         <v>1301491</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>80.3428</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>104565500</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>80.3428</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1908949.39</v>
@@ -7917,10 +7917,10 @@
         <v>1289170</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>80.19210000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>103381300</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>80.19210000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2150411.94</v>
@@ -7939,10 +7939,10 @@
         <v>1316070</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>81.0472</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>106663800</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>81.0472</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1770010.29</v>
@@ -7961,10 +7961,10 @@
         <v>1353400</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>79.88839999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>108121000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>79.88839999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1705526.26</v>
@@ -7983,10 +7983,10 @@
         <v>1390730</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>78.65519999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>109388100</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>78.65519999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1416188.55</v>
@@ -8005,10 +8005,10 @@
         <v>1405840</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>76.89149999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>108097100</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>76.89149999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1184022.52</v>
@@ -8027,10 +8027,10 @@
         <v>1371360</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>76.13189999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>104404300</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>76.13189999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>98788.78</v>
@@ -8049,10 +8049,10 @@
         <v>1402000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>73.6198</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>103215000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>73.6198</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>80701.61</v>
@@ -8071,10 +8071,10 @@
         <v>1476000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>72.53660000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>107064000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>72.53660000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>105410.74</v>
@@ -8093,10 +8093,10 @@
         <v>1760450</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>71.3518</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>125611300</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>71.3518</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>108793.31</v>
@@ -8115,10 +8115,10 @@
         <v>1816490</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>70.5765</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>128201500</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>70.5765</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -8133,10 +8133,10 @@
         <v>1794660</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>68.60010000000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>123113900</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>68.60010000000001</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -8151,10 +8151,10 @@
         <v>1721210</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>66.485</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>114434600</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>66.485</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -8169,10 +8169,10 @@
         <v>1686280</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>65.70010000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>110788700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>65.70010000000001</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -8187,10 +8187,10 @@
         <v>1697470</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>68.09350000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>115586700</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>68.09350000000001</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -8205,10 +8205,10 @@
         <v>1743480</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>71.20950000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>124152400</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>71.20950000000001</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -8223,10 +8223,10 @@
         <v>1585760</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>71.22799999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>112950500</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>71.22799999999999</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -8241,10 +8241,10 @@
         <v>1378170</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>70.45010000000001</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>97092200</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>70.45010000000001</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -8259,10 +8259,10 @@
         <v>1354350</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>63.9702</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>86638000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>63.9702</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -8277,10 +8277,10 @@
         <v>1378080</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>65.199</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>89849400</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>65.199</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -8295,10 +8295,10 @@
         <v>1409420</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>64.0226</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>90234800</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>64.0226</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -8313,10 +8313,10 @@
         <v>1393470</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>64.66369999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>90106900</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>64.66369999999999</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -8331,10 +8331,10 @@
         <v>1248040</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>60.6252</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>75662700</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>60.6252</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -8349,10 +8349,10 @@
         <v>1184880</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>57.6259</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>68279800</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>57.6259</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -8367,10 +8367,10 @@
         <v>1302840</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>57.3384</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>74702700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>57.3384</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -8385,10 +8385,10 @@
         <v>1401150</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>59.54969999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>83438100</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>59.54969999999999</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -8403,10 +8403,10 @@
         <v>1311490</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>60.1581</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>78896800</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>60.1581</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -8421,10 +8421,10 @@
         <v>1207480</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>56.4705</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>68187000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>56.4705</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -8439,10 +8439,10 @@
         <v>1125300</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>58.13330000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>65417400</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>58.13330000000001</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -8457,10 +8457,10 @@
         <v>1056500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>57.6685</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>60926800</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>57.6685</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -8475,10 +8475,10 @@
         <v>1087800</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>59.0125</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>64193800</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>59.0125</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -8493,10 +8493,10 @@
         <v>1245800</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>58.6055</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>73010700</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>58.6055</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -8511,10 +8511,10 @@
         <v>1163730</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>58.3451</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>67898000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>58.3451</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -8529,10 +8529,10 @@
         <v>1008800</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>57.1175</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>57620144</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>57.1175</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -8547,10 +8547,10 @@
         <v>959500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>50.8543</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>48794704</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>50.8543</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -8565,10 +8565,10 @@
         <v>924000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>53.0996</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>49064000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>53.0996</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -8583,10 +8583,10 @@
         <v>858000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>55.2016</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>47363008</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>55.2016</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -8601,10 +8601,10 @@
         <v>948900</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>52.9234</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>50219008</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>52.9234</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         <v>965000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>53.4188</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>51549152</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>53.4188</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -8637,10 +8637,10 @@
         <v>728000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>54.2844</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>39519008</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>54.2844</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -8655,10 +8655,10 @@
         <v>653470</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>47.6554</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>31141344</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>47.6554</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -8673,10 +8673,10 @@
         <v>652700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>56.50680000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>36882000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>56.50680000000001</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -8691,10 +8691,10 @@
         <v>550800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>53.8635</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>29668000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>53.8635</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -8709,10 +8709,10 @@
         <v>479000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>47.6138</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>22807008</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>47.6138</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -8727,10 +8727,10 @@
         <v>511800</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>42.0242</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>21508000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>42.0242</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -8745,10 +8745,10 @@
         <v>548500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>38.4996</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>21117008</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>38.4996</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -8763,10 +8763,10 @@
         <v>506800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>35.0296</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>17753008</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>35.0296</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -8781,10 +8781,10 @@
         <v>541100</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>30.7337</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16630000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>30.7337</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -8799,10 +8799,10 @@
         <v>523300</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>31.8498</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16667000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>31.8498</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -8817,10 +8817,10 @@
         <v>492700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>33.35169999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16432400</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>33.35169999999999</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -8835,10 +8835,10 @@
         <v>504700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>33.6133</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>16964608</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>33.6133</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -8853,10 +8853,10 @@
         <v>476700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>34.4374</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>16416300</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>34.4374</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -8871,10 +8871,10 @@
         <v>426000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>30.842</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13138700</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>30.842</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -8889,10 +8889,10 @@
         <v>387300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>34.7457</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13457000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>34.7457</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -8907,10 +8907,10 @@
         <v>328000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>32.0027</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>10496900</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>32.0027</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -8925,10 +8925,10 @@
         <v>320700</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>32.2451</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10341000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>32.2451</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -8943,10 +8943,10 @@
         <v>342000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>36.9599</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12640300</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>36.9599</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -8960,10 +8960,10 @@
         <v>345340</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>33.03469999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11408200</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>33.03469999999999</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -8977,10 +8977,10 @@
         <v>350400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>38.2135</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13390000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>38.2135</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -8994,10 +8994,10 @@
         <v>306000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>39.7412</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12160800</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>39.7412</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -9011,10 +9011,10 @@
         <v>184000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>42.3995</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7801500</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>42.3995</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -9028,10 +9028,10 @@
         <v>154000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>22.3571</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3443000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>22.3571</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -9045,10 +9045,10 @@
         <v>188500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>22.6424</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4268100</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>22.6424</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -9380,7 +9380,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9459,10 +9459,10 @@
         <v>1638400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>57.3619</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>93981770</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>57.3619</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1570.88</v>
@@ -9481,10 +9481,10 @@
         <v>1427200</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>64.5759</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>92162730</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>64.5759</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>826.76</v>
@@ -9503,10 +9503,10 @@
         <v>1369600</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>48.7189</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>66725460</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>48.7189</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>697.51</v>
@@ -9525,10 +9525,10 @@
         <v>1714135</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>43.7352</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>74968070</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>43.7352</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.01</v>
@@ -9547,10 +9547,10 @@
         <v>1835085</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>71.3875</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>131002173</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>71.3875</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>168.99</v>
@@ -9569,10 +9569,10 @@
         <v>1790208</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>75.4515</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>135073799</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>75.4515</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1148.14</v>
@@ -9591,10 +9591,10 @@
         <v>1403520</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>66.325</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>93088464</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>66.325</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4718.13</v>
@@ -9613,10 +9613,10 @@
         <v>1433120</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>65.68780000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>94138465</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>65.68780000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>10848.11</v>
@@ -9635,10 +9635,10 @@
         <v>1400748</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>67.2059</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>94138465</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>67.2059</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>9817.969999999999</v>
@@ -9657,10 +9657,10 @@
         <v>1353025</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>76.6408</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>103697005</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>76.6408</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>9929.120000000001</v>
@@ -9679,10 +9679,10 @@
         <v>1321595</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>75.7385</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>100095580</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>75.7385</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -9697,10 +9697,10 @@
         <v>1282082</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>76.7505</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>98400465</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>76.7505</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -9715,10 +9715,10 @@
         <v>1259240</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>76.19710000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>95950416</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>76.19710000000001</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -9733,10 +9733,10 @@
         <v>1009583</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>68.15469999999999</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>68807800</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>68.15469999999999</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -9751,10 +9751,10 @@
         <v>963646</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>69.33710000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>66816446</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>69.33710000000001</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -9769,10 +9769,10 @@
         <v>1054108</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>69.7287</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>73501611</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>69.7287</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -9787,10 +9787,10 @@
         <v>1010287</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>63.7101</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>64365482</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>63.7101</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -9805,10 +9805,10 @@
         <v>965333</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>49.3696</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>47658097</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>49.3696</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>1067244</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>46.4621</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>49586360</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>46.4621</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -9841,10 +9841,10 @@
         <v>1121897</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>57.93380000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>64995741</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>57.93380000000001</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -9859,10 +9859,10 @@
         <v>1139289</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>65.1797</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>74258521</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>65.1797</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -9877,10 +9877,10 @@
         <v>1011169</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>59.3501</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>60012977</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>59.3501</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -9895,10 +9895,10 @@
         <v>877023</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>56.5126</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>49562886</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>56.5126</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -9913,10 +9913,10 @@
         <v>913639</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>59.1614</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>54052125</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>59.1614</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -9931,10 +9931,10 @@
         <v>917532</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>54.8554</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>50331567</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>54.8554</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -9949,10 +9949,10 @@
         <v>943580</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>46.0639</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>43464950</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>46.0639</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -9967,10 +9967,10 @@
         <v>980261</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>57.529</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>56393460</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>57.529</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -9985,10 +9985,10 @@
         <v>985004</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>58.8561</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>57973530</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>58.8561</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10003,10 +10003,10 @@
         <v>922705</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>54.8359</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>50597340</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>54.8359</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10021,10 +10021,10 @@
         <v>799539</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>47.3059</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>37822874</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>47.3059</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10039,10 +10039,10 @@
         <v>991589</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>40.6309</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>40289117</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>40.6309</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10057,10 +10057,10 @@
         <v>916359</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>52.3306</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>47953605</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>52.3306</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10075,10 +10075,10 @@
         <v>782312</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>52.3429</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>40948517</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>52.3429</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10093,10 +10093,10 @@
         <v>686400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>48.8942</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>33561000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>48.8942</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
         <v>659520</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>55.598</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>36668000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>55.598</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -10129,10 +10129,10 @@
         <v>570634</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>47.6508</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>27191184</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>47.6508</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -10147,10 +10147,10 @@
         <v>520153</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>47.00530000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>24449936</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>47.00530000000001</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -10165,10 +10165,10 @@
         <v>545981</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>44.1282</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>24093168</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>44.1282</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -10183,10 +10183,10 @@
         <v>531048</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>47.1803</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>25055024</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>47.1803</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -10201,10 +10201,10 @@
         <v>535902</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>44.5408</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>23869488</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>44.5408</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -10219,10 +10219,10 @@
         <v>577160</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>42.2888</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>24407408</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>42.2888</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -10237,10 +10237,10 @@
         <v>613316</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>49.2405</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>30200000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>49.2405</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -10255,10 +10255,10 @@
         <v>456524</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>43.4888</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>19853664</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>43.4888</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -10273,10 +10273,10 @@
         <v>425600</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>30.1378</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12826662</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>30.1378</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -10291,10 +10291,10 @@
         <v>504320</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>40.76880000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>20560528</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>40.76880000000001</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -10309,10 +10309,10 @@
         <v>559680</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>33.8429</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18941216</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>33.8429</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -10327,10 +10327,10 @@
         <v>494080</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>52.8142</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>26094448</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>52.8142</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -10345,10 +10345,10 @@
         <v>373600</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>53.2916</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>19909744</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>53.2916</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -10363,10 +10363,10 @@
         <v>303200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>48.1276</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>14592300</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>48.1276</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -10381,10 +10381,10 @@
         <v>258609</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>51.579</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13338800</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>51.579</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -10399,10 +10399,10 @@
         <v>181280</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>52.4768</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9513000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>52.4768</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -10417,10 +10417,10 @@
         <v>158560</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>37.3739</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5926000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>37.3739</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -10435,10 +10435,10 @@
         <v>137920</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>47.75230000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6586000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>47.75230000000001</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -10453,10 +10453,10 @@
         <v>118240</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>43.1495</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5102000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>43.1495</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -10471,10 +10471,10 @@
         <v>103360</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4399000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>42.56</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -10489,10 +10489,10 @@
         <v>71680</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>33.1892</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2379000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>33.1892</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -10507,10 +10507,10 @@
         <v>57760</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>43.8885</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2535000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>43.8885</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -10524,10 +10524,10 @@
         <v>83680</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>36.3886</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3045000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>36.3886</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -10541,10 +10541,10 @@
         <v>85120</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>45.9704</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3913000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>45.9704</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -10558,10 +10558,10 @@
         <v>72320</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>33.0061</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2387000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>33.0061</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -10575,10 +10575,10 @@
         <v>55200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>30.7065</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1695000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>30.7065</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -10592,10 +10592,10 @@
         <v>60000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1980000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>33</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -10609,10 +10609,10 @@
         <v>63000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>31.746</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>31.746</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -10944,7 +10944,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11023,10 +11023,10 @@
         <v>1180280</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>74.25160000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>87637669</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>74.25160000000001</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11043,10 +11043,10 @@
         <v>1318837</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>66.71119999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>87981135</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>66.71119999999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>7.79</v>
@@ -11065,10 +11065,10 @@
         <v>1260291</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>70.34139999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>88650593</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>70.34139999999999</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11085,10 +11085,10 @@
         <v>1165030</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>69.53410000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>81009261</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>69.53410000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>10.04</v>
@@ -11107,10 +11107,10 @@
         <v>1039769</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>63.8407</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>66379581</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>63.8407</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -11129,10 +11129,10 @@
         <v>1101946</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>60.9594</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>67173975</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>60.9594</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11149,10 +11149,10 @@
         <v>1341781</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>62.1061</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>83332740</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>62.1061</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.08</v>
@@ -11171,10 +11171,10 @@
         <v>1217508</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>61.9973</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>75482253</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>61.9973</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -11191,10 +11191,10 @@
         <v>1131476</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>57.8734</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>65482334</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>57.8734</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -11211,10 +11211,10 @@
         <v>1140492</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>55.0872</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>62826458</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>55.0872</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -11231,10 +11231,10 @@
         <v>1172352</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>57.5425</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>67460094</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>57.5425</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -11249,10 +11249,10 @@
         <v>1057600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>55.2165</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>58397000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>55.2165</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -11267,10 +11267,10 @@
         <v>987700</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>55.9973</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>55308500</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>55.9973</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -11285,10 +11285,10 @@
         <v>942800</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>52.3684</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>49372900</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>52.3684</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -11303,10 +11303,10 @@
         <v>1029400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>48.6161</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>50045400</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>48.6161</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -11321,10 +11321,10 @@
         <v>1241300</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>51.4944</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>63920000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>51.4944</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -11339,10 +11339,10 @@
         <v>1028800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>53.2092</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>54741600</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>53.2092</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -11357,10 +11357,10 @@
         <v>907300</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>49.229</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>44665500</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>49.229</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -11375,10 +11375,10 @@
         <v>966400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>48.8867</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>47244100</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>48.8867</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -11393,10 +11393,10 @@
         <v>1074500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>50.0884</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>53820000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>50.0884</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         <v>1099600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>47.3407</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>52055800</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>47.3407</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -11429,10 +11429,10 @@
         <v>999700</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>48.056</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>48041600</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>48.056</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -11447,10 +11447,10 @@
         <v>960800</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>45.3854</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>43606300</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>45.3854</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -11465,10 +11465,10 @@
         <v>1009800</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>45.8829</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>46332600</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>45.8829</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -11483,10 +11483,10 @@
         <v>1155100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>47.7804</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>55191100</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>47.7804</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -11501,10 +11501,10 @@
         <v>1056200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>50.2785</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>53104200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>50.2785</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -11519,10 +11519,10 @@
         <v>964500</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>43.5442</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>41998400</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>43.5442</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -11537,10 +11537,10 @@
         <v>963100</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>46.9626</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>45229700</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>46.9626</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -11555,10 +11555,10 @@
         <v>1009000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>46.74769999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>47168400</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>46.74769999999999</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -11573,10 +11573,10 @@
         <v>962800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>46.1435</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>44427000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>46.1435</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -11591,10 +11591,10 @@
         <v>884600</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>43.0238</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>38058896</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>43.0238</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -11609,10 +11609,10 @@
         <v>896100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>43.37119999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>38864896</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>43.37119999999999</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -11627,10 +11627,10 @@
         <v>883800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>40.7204</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>35988704</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>40.7204</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -11645,10 +11645,10 @@
         <v>854300</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>41.547</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>35493600</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>41.547</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -11663,10 +11663,10 @@
         <v>876900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>42.1664</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>36975696</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>42.1664</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -11681,10 +11681,10 @@
         <v>841600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>39.2452</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>33028800</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>39.2452</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -11699,10 +11699,10 @@
         <v>762000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>57.2283</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>43608000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>57.2283</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -11717,10 +11717,10 @@
         <v>779800</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>35.7224</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>27856304</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>35.7224</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -11735,10 +11735,10 @@
         <v>903600</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>35.5684</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>32139600</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>35.5684</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -11753,10 +11753,10 @@
         <v>896500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>38.2457</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>34287296</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>38.2457</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -11771,10 +11771,10 @@
         <v>911700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>35.6844</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>32533504</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>35.6844</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -11789,10 +11789,10 @@
         <v>946700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>38.6392</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>36579696</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>38.6392</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -11807,10 +11807,10 @@
         <v>824700</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>39.2378</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>32359408</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>39.2378</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -11825,10 +11825,10 @@
         <v>718500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>38.271</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>27497696</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>38.271</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -11843,10 +11843,10 @@
         <v>752500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>36.313</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>27325504</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>36.313</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -11861,10 +11861,10 @@
         <v>822500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>36.5673</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>30076608</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>36.5673</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -11879,10 +11879,10 @@
         <v>787827</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>37.4739</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>29522960</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>37.4739</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -11897,10 +11897,10 @@
         <v>699830</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>36.5041</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>25546640</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>36.5041</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -11915,10 +11915,10 @@
         <v>672818</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>31.5717</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>21242000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>31.5717</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -11933,10 +11933,10 @@
         <v>645500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>37.0418</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>23910496</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>37.0418</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -11951,10 +11951,10 @@
         <v>533400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>37.3961</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>19947104</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>37.3961</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -11969,10 +11969,10 @@
         <v>552400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>36.1394</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>19963408</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>36.1394</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -11987,10 +11987,10 @@
         <v>636000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>36.4261</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>23167008</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>36.4261</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -12005,10 +12005,10 @@
         <v>620000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>42.5315</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>26369504</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>42.5315</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -12023,10 +12023,10 @@
         <v>540700</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>40.6344</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>21971008</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>40.6344</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -12041,10 +12041,10 @@
         <v>503800</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>37.0365</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>18659008</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>37.0365</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -12059,10 +12059,10 @@
         <v>649500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>33.84480000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>21982208</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>33.84480000000001</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -12076,10 +12076,10 @@
         <v>597300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>37.3504</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>22309408</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>37.3504</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -12093,10 +12093,10 @@
         <v>503000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>37.1113</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>18667008</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>37.1113</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -12110,10 +12110,10 @@
         <v>477500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>33.799</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>16139000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>33.799</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -12127,10 +12127,10 @@
         <v>531000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>34.7232</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>18438000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>34.7232</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -12144,10 +12144,10 @@
         <v>444300</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>32.3131</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>14356700</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>32.3131</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -12161,10 +12161,10 @@
         <v>388100</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>29.9923</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11640000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>29.9923</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>

--- a/Resultados/Mercado mundial - Azucar, caña.xlsx
+++ b/Resultados/Mercado mundial - Azucar, caña.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tailandia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pakistán" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Brazil" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="China, mainland" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Thailand" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Pakistan" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +842,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Tailandia'!$B$12:$B$74</f>
+              <f>'Thailand'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Tailandia'!$C$12:$C$74</f>
+              <f>'Thailand'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Pakistán'!$B$12:$B$74</f>
+              <f>'Pakistan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Pakistán'!$C$12:$C$74</f>
+              <f>'Pakistan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>27028428</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2025797465.39</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>74.95060000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2025797465.39</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1985199.46</v>
@@ -2160,10 +2160,10 @@
         <v>26176311</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1925501392.21</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>73.55889999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1925501392.21</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2217858.26</v>
@@ -2182,10 +2182,10 @@
         <v>25835986</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1863423749.73</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>72.1251</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1863423749.73</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1827973.88</v>
@@ -2204,10 +2204,10 @@
         <v>26084333</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1880340058.38</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>72.087</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1880340058.38</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1773783.38</v>
@@ -2226,10 +2226,10 @@
         <v>26942728</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1959245018.3</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>72.71889999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1959245018.3</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1474226.08</v>
@@ -2248,10 +2248,10 @@
         <v>26360820</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1932584661.12</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>73.31280000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1932584661.12</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1240361.92</v>
@@ -2270,10 +2270,10 @@
         <v>26120075</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1836195563.18</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>70.29819999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1836195563.18</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>165471.14</v>
@@ -2292,10 +2292,10 @@
         <v>26484385</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1879823009.19</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>70.9785</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1879823009.19</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>163065.48</v>
@@ -2314,10 +2314,10 @@
         <v>26441711</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1873961423.13</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>70.87139999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1873961423.13</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>163257.5</v>
@@ -2336,10 +2336,10 @@
         <v>26965135</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1885530237.95</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>69.9247</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1885530237.95</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>161620.48</v>
@@ -2358,10 +2358,10 @@
         <v>26757275</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1901439482.21</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>71.0625</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1901439482.21</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -2376,10 +2376,10 @@
         <v>25898392</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1827471511.92</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>70.56310000000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1827471511.92</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -2394,10 +2394,10 @@
         <v>25401398</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1789976756.67</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>70.4676</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1789976756.67</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -2412,10 +2412,10 @@
         <v>23542690</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1675883618.97</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>71.1849</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1675883618.97</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -2430,10 +2430,10 @@
         <v>23575431</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1672541437.33</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>70.9443</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1672541437.33</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -2448,10 +2448,10 @@
         <v>23974950</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1716482480.76</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>71.59480000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1716482480.76</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
         <v>22585253</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1602217594.69</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>70.9409</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1602217594.69</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -2484,10 +2484,10 @@
         <v>20480032</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1417317813.34</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>69.20489999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1417317813.34</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -2502,10 +2502,10 @@
         <v>19570187</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1306270271.1</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>66.748</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1306270271.1</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         <v>20018924</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1333090823.21</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>66.5915</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1333090823.21</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -2538,10 +2538,10 @@
         <v>20452118</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1371673730.84</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>67.0676</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1371673730.84</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
         <v>20164681</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1326773001.31</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>65.79689999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1326773001.31</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -2574,10 +2574,10 @@
         <v>19498967</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1257368580.44</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>64.48390000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1257368580.44</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         <v>19310607</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1252988142.16</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>64.886</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1252988142.16</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -2610,10 +2610,10 @@
         <v>19510537</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1282085247.2</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>65.71250000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1282085247.2</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -2628,10 +2628,10 @@
         <v>19499384</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1263826829.34</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>64.8137</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1263826829.34</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -2646,10 +2646,10 @@
         <v>19466010</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1246173613.02</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>64.0179</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1246173613.02</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -2664,10 +2664,10 @@
         <v>19320519</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1218714246.7</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>63.0788</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1218714246.7</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -2682,10 +2682,10 @@
         <v>18436271</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1163042936.93</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>63.0845</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1163042936.93</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -2700,10 +2700,10 @@
         <v>17544351</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1084390396.26</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>61.8085</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1084390396.26</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -2718,10 +2718,10 @@
         <v>17244299</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1020801159.4</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>59.1964</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1020801159.4</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         <v>18038277</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1107567861.44</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>61.401</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1107567861.44</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -2754,10 +2754,10 @@
         <v>17694698</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1086523541</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>61.4039</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1086523541</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         <v>17079389</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1052997467</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>61.6531</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1052997467</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -2790,10 +2790,10 @@
         <v>16535892</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1017998753</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>61.563</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1017998753</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -2808,10 +2808,10 @@
         <v>16390026</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>992982481</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>60.5846</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>992982481</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         <v>16310461</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>990319218</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>60.71680000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>990319218</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -2844,10 +2844,10 @@
         <v>15826281</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>934719152</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>59.0612</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>934719152</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         <v>15947834</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>933213554</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>58.5166</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>933213554</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -2880,10 +2880,10 @@
         <v>15635458</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>929768210</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>59.4654</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>929768210</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -2898,10 +2898,10 @@
         <v>15380780</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>903684316</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>58.7541</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>903684316</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -2916,10 +2916,10 @@
         <v>15055190</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>907067842</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>60.2495</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>907067842</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -2934,10 +2934,10 @@
         <v>13686559</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>799604175</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>58.4226</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>799604175</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -2952,10 +2952,10 @@
         <v>13284801</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>734489160</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>55.2879</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>734489160</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         <v>13733124</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>770245138</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>56.0867</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>770245138</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
         <v>13690012</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>774416818</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>56.568</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>774416818</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -3006,10 +3006,10 @@
         <v>13029250</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>734858248</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>56.4007</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>734858248</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -3024,10 +3024,10 @@
         <v>12575248</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>687207500</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>54.6476</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>687207500</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -3042,10 +3042,10 @@
         <v>12198427</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>655815754</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>53.7623</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>655815754</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         <v>11932286</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>648516459</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>54.3497</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>648516459</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         <v>11149183</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>600227107</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>53.836</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>600227107</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -3096,10 +3096,10 @@
         <v>10871046</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>569105532</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>52.3506</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>569105532</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -3114,10 +3114,10 @@
         <v>11055348</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>582105390</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>52.6537</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>582105390</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -3132,10 +3132,10 @@
         <v>11113279</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>608616069</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>54.7648</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>608616069</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         <v>10046896</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>538255703</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>53.5743</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>538255703</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         <v>9586093</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>506091846</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>52.7944</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>506091846</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -3186,10 +3186,10 @@
         <v>9949013</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>518890863</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>52.155</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>518890863</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -3203,10 +3203,10 @@
         <v>10375297</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>531492794</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>51.2268</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>531492794</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         <v>10163096</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>531147459</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>52.2624</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>531147459</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         <v>9327342</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>480640741</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>51.5303</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>480640741</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         <v>9036376</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>439799877</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>48.6699</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>439799877</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -3271,10 +3271,10 @@
         <v>9021967</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>436735615</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>48.408</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>436735615</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -3288,10 +3288,10 @@
         <v>8910248</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>447873497</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>50.265</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>447873497</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -3574,8 +3574,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3670,7 +3670,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3698,7 +3698,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3712,7 +3712,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3726,7 +3726,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3740,7 +3740,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3796,7 +3796,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3904,7 +3904,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4003,7 +4003,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>República Democrática Popular Lao</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4045,7 +4045,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4059,7 +4059,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4073,7 +4073,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Líbano</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4087,7 +4087,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Chipre</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4101,7 +4101,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4325,8 +4325,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4421,7 +4421,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4435,7 +4435,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4449,7 +4449,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Singapur</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4463,7 +4463,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4477,7 +4477,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4505,7 +4505,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Suiza</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4519,7 +4519,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Túnez</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4533,7 +4533,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4720,7 +4720,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4799,10 +4799,10 @@
         <v>10065599</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>782585836</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>77.74860000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>782585836</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -4819,10 +4819,10 @@
         <v>9886621</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>726052712</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>73.4379</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>726052712</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -4839,10 +4839,10 @@
         <v>9971370</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>715679276</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>71.7734</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>715679276</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -4859,10 +4859,10 @@
         <v>9996134</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>756070576</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>75.63630000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>756070576</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -4879,10 +4879,10 @@
         <v>10092430</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>753470465</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>74.657</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>753470465</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -4899,10 +4899,10 @@
         <v>10024104</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>747556774</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>74.57589999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>747556774</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -4919,10 +4919,10 @@
         <v>10189208</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>758646205</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>74.4559</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>758646205</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -4939,10 +4939,10 @@
         <v>10223894</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>768594154</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>75.1763</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>768594154</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -4959,10 +4959,10 @@
         <v>10111376</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>750290277</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>74.2026</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>750290277</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -4979,10 +4979,10 @@
         <v>10419678</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>736108487</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>70.646</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>736108487</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.01</v>
@@ -5001,10 +5001,10 @@
         <v>10195166</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>768090444</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>75.3387</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>768090444</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -5019,10 +5019,10 @@
         <v>9705388</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>721077287</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>74.29660000000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>721077287</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -5037,10 +5037,10 @@
         <v>9601316</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>734006059</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>76.4485</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>734006059</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -5055,10 +5055,10 @@
         <v>9076706</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>717463793</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>79.0445</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>717463793</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -5073,10 +5073,10 @@
         <v>8617555</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>691606147</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>80.2555</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>691606147</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -5091,10 +5091,10 @@
         <v>8140089</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>645300182</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>79.2743</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>645300182</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -5109,10 +5109,10 @@
         <v>7080920</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>549707314</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>77.6322</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>549707314</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -5127,10 +5127,10 @@
         <v>6355498</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>477410656</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>75.1177</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>477410656</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -5145,10 +5145,10 @@
         <v>5805518</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>422956646</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>72.85419999999999</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>422956646</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -5163,10 +5163,10 @@
         <v>5631741</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>415205835</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>73.726</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>415205835</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -5181,10 +5181,10 @@
         <v>5371020</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>396012158</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>73.7313</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>396012158</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -5199,10 +5199,10 @@
         <v>5100405</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>364389416</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>71.44319999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>364389416</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -5217,10 +5217,10 @@
         <v>4957897</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>344292922</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>69.44330000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>344292922</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -5235,10 +5235,10 @@
         <v>4804511</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>326121011</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>67.8781</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>326121011</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -5253,10 +5253,10 @@
         <v>4898844</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>333847720</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>68.14830000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>333847720</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -5271,10 +5271,10 @@
         <v>4985819</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>345254972</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>69.2474</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>345254972</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -5289,10 +5289,10 @@
         <v>4814084</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>331612687</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>68.8839</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>331612687</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -5307,10 +5307,10 @@
         <v>4750296</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>317105981</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>66.755</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>317105981</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -5325,10 +5325,10 @@
         <v>4559062</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>303699497</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>66.61450000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>303699497</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -5343,10 +5343,10 @@
         <v>4345260</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>292101835</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>67.2231</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>292101835</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -5361,10 +5361,10 @@
         <v>3863702</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>244530708</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>63.28919999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>244530708</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -5379,10 +5379,10 @@
         <v>4202604</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>271474875</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>64.5968</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>271474875</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -5397,10 +5397,10 @@
         <v>4210954</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>260887893</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>61.9546</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>260887893</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -5415,10 +5415,10 @@
         <v>4272600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>262674144</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>61.4788</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>262674144</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -5433,10 +5433,10 @@
         <v>4067700</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>252290000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>62.0228</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>252290000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -5451,10 +5451,10 @@
         <v>4113230</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>258294000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>62.7959</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>258294000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -5469,10 +5469,10 @@
         <v>4308680</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>268504000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>62.317</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>268504000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -5487,10 +5487,10 @@
         <v>3944680</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>238443008</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>60.4467</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>238443008</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -5505,10 +5505,10 @@
         <v>3912042</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>247199472</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>63.1894</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>247199472</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -5523,10 +5523,10 @@
         <v>3655810</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>222317840</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>60.8122</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>222317840</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -5541,10 +5541,10 @@
         <v>3478785</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>216036960</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>62.1013</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>216036960</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -5559,10 +5559,10 @@
         <v>3084297</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>186646608</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>60.5151</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>186646608</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -5577,10 +5577,10 @@
         <v>2825879</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>155924112</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>55.1772</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>155924112</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -5595,10 +5595,10 @@
         <v>2607628</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>148650560</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>57.006</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>148650560</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -5613,10 +5613,10 @@
         <v>2536976</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>138898880</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>54.7498</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>138898880</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -5631,10 +5631,10 @@
         <v>2391455</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>129144944</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>54.0027</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>129144944</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -5649,10 +5649,10 @@
         <v>2270036</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>120081696</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>52.8986</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>120081696</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -5667,10 +5667,10 @@
         <v>2093483</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>103173456</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>49.28319999999999</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>103173456</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -5685,10 +5685,10 @@
         <v>1969227</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>91524560</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>46.4774</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>91524560</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -5703,10 +5703,10 @@
         <v>2056691</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>95623680</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>46.4939</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>95623680</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -5721,10 +5721,10 @@
         <v>1958776</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>91994032</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>46.9651</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>91994032</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -5739,10 +5739,10 @@
         <v>1802648</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>85106224</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>47.2118</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>85106224</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -5757,10 +5757,10 @@
         <v>1728003</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>80380400</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>46.5164</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>80380400</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -5775,10 +5775,10 @@
         <v>1725121</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>79752944</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>46.2303</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>79752944</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -5793,10 +5793,10 @@
         <v>1672101</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>75247088</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>45.0015</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>75247088</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -5811,10 +5811,10 @@
         <v>1686727</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>76610496</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>45.4196</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>76610496</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -5829,10 +5829,10 @@
         <v>1680763</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>77086528</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>45.864</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>77086528</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -5846,10 +5846,10 @@
         <v>1635503</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>75787520</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>46.339</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>75787520</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -5863,10 +5863,10 @@
         <v>1705081</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>75852864</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>44.4864</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>75852864</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -5880,10 +5880,10 @@
         <v>1519491</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>66398976</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>43.6982</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>66398976</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -5897,10 +5897,10 @@
         <v>1509011</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>63722896</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>42.2283</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>63722896</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -5914,10 +5914,10 @@
         <v>1466619</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>62534512</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>42.6386</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>62534512</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -5931,10 +5931,10 @@
         <v>1366640</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>59377392</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>43.4477</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>59377392</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -6266,7 +6266,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6345,10 +6345,10 @@
         <v>5885317</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>490533351.06</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>83.34869999999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>490533351.06</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.3</v>
@@ -6367,10 +6367,10 @@
         <v>5175410</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>439424890</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>84.9063</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>439424890</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -6387,10 +6387,10 @@
         <v>4851230</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>405398710</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>83.56619999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>405398710</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6407,10 +6407,10 @@
         <v>4602680</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>370500300</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>80.4966</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>370500300</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6427,10 +6427,10 @@
         <v>5061090</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>405416180</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>80.1045</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>405416180</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6447,10 +6447,10 @@
         <v>4737060</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>379904850</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>80.19839999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>379904850</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.1</v>
@@ -6469,10 +6469,10 @@
         <v>4435690</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>306069000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>69.00139999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>306069000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.45</v>
@@ -6491,10 +6491,10 @@
         <v>4950000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>348448000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>70.3935</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>348448000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6511,10 +6511,10 @@
         <v>5070000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>362333000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>71.46610000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>362333000</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6531,10 +6531,10 @@
         <v>4990000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>352142000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>70.56950000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>352142000</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6551,10 +6551,10 @@
         <v>5000000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>341200000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>68.23999999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>341200000</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -6569,10 +6569,10 @@
         <v>5040000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>361036992</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>71.6343</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>361036992</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -6587,10 +6587,10 @@
         <v>4944390</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>342382016</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>69.2466</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>342382016</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -6605,10 +6605,10 @@
         <v>4174600</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>292301600</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>70.01910000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>292301600</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -6623,10 +6623,10 @@
         <v>4415400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>285029312</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>64.5535</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>285029312</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -6641,10 +6641,10 @@
         <v>5055200</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>348187904</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>68.8772</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>348187904</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -6659,10 +6659,10 @@
         <v>5150000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>355519712</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>69.033</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>355519712</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -6677,10 +6677,10 @@
         <v>4201100</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>281171808</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>66.9281</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>281171808</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -6695,10 +6695,10 @@
         <v>3661500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>237088400</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>64.7517</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>237088400</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -6713,10 +6713,10 @@
         <v>3938400</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>233861792</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>59.3799</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>233861792</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -6731,10 +6731,10 @@
         <v>4520300</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>287383200</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>63.5761</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>287383200</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -6749,10 +6749,10 @@
         <v>4411600</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>297207808</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>67.36960000000001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>297207808</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -6767,10 +6767,10 @@
         <v>4315700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>295956000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>68.5766</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>295956000</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -6785,10 +6785,10 @@
         <v>4219700</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>299323904</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>70.9349</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>299323904</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -6803,10 +6803,10 @@
         <v>4054900</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>310332800</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>76.53280000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>310332800</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -6821,10 +6821,10 @@
         <v>3929800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>279541504</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>71.13380000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>279541504</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -6839,10 +6839,10 @@
         <v>4174100</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>277560000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>66.4958</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>277560000</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -6857,10 +6857,10 @@
         <v>4150000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>281100000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>67.7349</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>281100000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -6875,10 +6875,10 @@
         <v>3870000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>275540000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>71.199</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>275540000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -6893,10 +6893,10 @@
         <v>3420000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>229670000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>67.155</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>229670000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -6911,10 +6911,10 @@
         <v>3570000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>228030000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>63.8739</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>228030000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -6929,10 +6929,10 @@
         <v>3840000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>254000000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>66.14580000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>254000000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -6947,10 +6947,10 @@
         <v>3686000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>241045504</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>65.39490000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>241045504</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -6965,10 +6965,10 @@
         <v>3439000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>225569200</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>65.5915</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>225569200</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -6983,10 +6983,10 @@
         <v>3328900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>203036800</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>60.9922</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>203036800</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -7001,10 +7001,10 @@
         <v>3278600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>196736896</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>60.0064</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>196736896</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -7019,10 +7019,10 @@
         <v>3078700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>186089504</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>60.4442</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>186089504</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -7037,10 +7037,10 @@
         <v>2862000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>171680992</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>59.9864</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>171680992</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -7055,10 +7055,10 @@
         <v>2953200</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>170319200</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>57.6728</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>170319200</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -7073,10 +7073,10 @@
         <v>3109700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>174076000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>55.9784</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>174076000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -7091,10 +7091,10 @@
         <v>3357600</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>189505600</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>56.4408</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>189505600</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -7109,10 +7109,10 @@
         <v>3193300</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>186357600</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>58.3589</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>186357600</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -7127,10 +7127,10 @@
         <v>2666600</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>154248000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>57.8444</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>154248000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -7145,10 +7145,10 @@
         <v>2610200</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>128833408</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>49.35769999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>128833408</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -7163,10 +7163,10 @@
         <v>3087800</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>151655104</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>49.1143</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>151655104</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -7181,10 +7181,10 @@
         <v>3151100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>176965008</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>56.1598</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>176965008</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -7199,10 +7199,10 @@
         <v>2866200</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>153007008</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>53.3832</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>153007008</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -7217,10 +7217,10 @@
         <v>2762200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>140603504</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>50.9027</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>140603504</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -7235,10 +7235,10 @@
         <v>2894200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>144288896</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>49.8545</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>144288896</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -7253,10 +7253,10 @@
         <v>2752100</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>140805008</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>51.1628</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>140805008</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -7271,10 +7271,10 @@
         <v>2451600</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>124866704</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>50.9327</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>124866704</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -7289,10 +7289,10 @@
         <v>2390400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>113569504</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>47.5107</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>113569504</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -7307,10 +7307,10 @@
         <v>2615000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>126368000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>48.3243</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>126368000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -7325,10 +7325,10 @@
         <v>2748000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>135024000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>49.1354</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>135024000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -7343,10 +7343,10 @@
         <v>2532200</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>124676096</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>49.2363</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>124676096</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -7361,10 +7361,10 @@
         <v>2047000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>95500000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>46.6536</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>95500000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -7379,10 +7379,10 @@
         <v>2301000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>92827008</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>40.342</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>92827008</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -7396,10 +7396,10 @@
         <v>2836000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>123990000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>43.72</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>123990000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -7413,10 +7413,10 @@
         <v>2602900</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>122077008</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>46.9004</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>122077008</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -7430,10 +7430,10 @@
         <v>2249000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>104225008</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>46.3428</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>104225008</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -7447,10 +7447,10 @@
         <v>2242000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>91913008</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>40.996</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>91913008</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -7464,10 +7464,10 @@
         <v>2456000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>103967008</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>42.3318</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>103967008</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -7481,10 +7481,10 @@
         <v>2413000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>110001008</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>45.5868</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>110001008</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -7816,7 +7816,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7895,10 +7895,10 @@
         <v>1301491</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>104565500</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>80.3428</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>104565500</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1908949.39</v>
@@ -7917,10 +7917,10 @@
         <v>1289170</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>103381300</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>80.19210000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>103381300</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2150411.94</v>
@@ -7939,10 +7939,10 @@
         <v>1316070</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>106663800</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>81.0472</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>106663800</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1770010.29</v>
@@ -7961,10 +7961,10 @@
         <v>1353400</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>108121000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>79.88839999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>108121000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1705526.26</v>
@@ -7983,10 +7983,10 @@
         <v>1390730</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>109388100</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>78.65519999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>109388100</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1416188.55</v>
@@ -8005,10 +8005,10 @@
         <v>1405840</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>108097100</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>76.89149999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>108097100</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1184022.52</v>
@@ -8027,10 +8027,10 @@
         <v>1371360</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>104404300</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>76.13189999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>104404300</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>98788.78</v>
@@ -8049,10 +8049,10 @@
         <v>1402000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>103215000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>73.6198</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>103215000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>80701.61</v>
@@ -8071,10 +8071,10 @@
         <v>1476000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>107064000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>72.53660000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>107064000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>105410.74</v>
@@ -8093,10 +8093,10 @@
         <v>1760450</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>125611300</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>71.3518</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>125611300</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>108793.31</v>
@@ -8115,10 +8115,10 @@
         <v>1816490</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>128201500</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>70.5765</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>128201500</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -8133,10 +8133,10 @@
         <v>1794660</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>123113900</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>68.60010000000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>123113900</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -8151,10 +8151,10 @@
         <v>1721210</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>114434600</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>66.485</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>114434600</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -8169,10 +8169,10 @@
         <v>1686280</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>110788700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>65.70010000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>110788700</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -8187,10 +8187,10 @@
         <v>1697470</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>115586700</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>68.09350000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>115586700</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -8205,10 +8205,10 @@
         <v>1743480</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>124152400</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>71.20950000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>124152400</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -8223,10 +8223,10 @@
         <v>1585760</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>112950500</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>71.22799999999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>112950500</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -8241,10 +8241,10 @@
         <v>1378170</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>97092200</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>70.45010000000001</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>97092200</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -8259,10 +8259,10 @@
         <v>1354350</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>86638000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>63.9702</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>86638000</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -8277,10 +8277,10 @@
         <v>1378080</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>89849400</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>65.199</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>89849400</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -8295,10 +8295,10 @@
         <v>1409420</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>90234800</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>64.0226</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>90234800</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -8313,10 +8313,10 @@
         <v>1393470</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>90106900</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>64.66369999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>90106900</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -8331,10 +8331,10 @@
         <v>1248040</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>75662700</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>60.6252</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>75662700</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -8349,10 +8349,10 @@
         <v>1184880</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>68279800</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>57.6259</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>68279800</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -8367,10 +8367,10 @@
         <v>1302840</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>74702700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>57.3384</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>74702700</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -8385,10 +8385,10 @@
         <v>1401150</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>83438100</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>59.54969999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>83438100</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -8403,10 +8403,10 @@
         <v>1311490</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>78896800</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>60.1581</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>78896800</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -8421,10 +8421,10 @@
         <v>1207480</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>68187000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>56.4705</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>68187000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -8439,10 +8439,10 @@
         <v>1125300</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>65417400</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>58.13330000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>65417400</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -8457,10 +8457,10 @@
         <v>1056500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>60926800</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>57.6685</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>60926800</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -8475,10 +8475,10 @@
         <v>1087800</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>64193800</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>59.0125</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>64193800</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -8493,10 +8493,10 @@
         <v>1245800</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>73010700</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>58.6055</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>73010700</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -8511,10 +8511,10 @@
         <v>1163730</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>67898000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>58.3451</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>67898000</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -8529,10 +8529,10 @@
         <v>1008800</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>57620144</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>57.1175</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>57620144</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -8547,10 +8547,10 @@
         <v>959500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>48794704</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>50.8543</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>48794704</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -8565,10 +8565,10 @@
         <v>924000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>49064000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>53.0996</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>49064000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -8583,10 +8583,10 @@
         <v>858000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>47363008</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>55.2016</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>47363008</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -8601,10 +8601,10 @@
         <v>948900</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>50219008</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>52.9234</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>50219008</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -8619,10 +8619,10 @@
         <v>965000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>51549152</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>53.4188</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>51549152</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -8637,10 +8637,10 @@
         <v>728000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>39519008</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>54.2844</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>39519008</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -8655,10 +8655,10 @@
         <v>653470</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>31141344</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>47.6554</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>31141344</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -8673,10 +8673,10 @@
         <v>652700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>36882000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>56.50680000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>36882000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -8691,10 +8691,10 @@
         <v>550800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>29668000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>53.8635</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>29668000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -8709,10 +8709,10 @@
         <v>479000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>22807008</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>47.6138</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>22807008</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -8727,10 +8727,10 @@
         <v>511800</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>21508000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>42.0242</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>21508000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -8745,10 +8745,10 @@
         <v>548500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>21117008</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>38.4996</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>21117008</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -8763,10 +8763,10 @@
         <v>506800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>17753008</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>35.0296</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>17753008</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -8781,10 +8781,10 @@
         <v>541100</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16630000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>30.7337</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16630000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -8799,10 +8799,10 @@
         <v>523300</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16667000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>31.8498</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16667000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -8817,10 +8817,10 @@
         <v>492700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16432400</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>33.35169999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16432400</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -8835,10 +8835,10 @@
         <v>504700</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>16964608</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>33.6133</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>16964608</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -8853,10 +8853,10 @@
         <v>476700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>16416300</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>34.4374</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>16416300</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -8871,10 +8871,10 @@
         <v>426000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13138700</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>30.842</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13138700</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -8889,10 +8889,10 @@
         <v>387300</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13457000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>34.7457</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13457000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -8907,10 +8907,10 @@
         <v>328000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>10496900</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>32.0027</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>10496900</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -8925,10 +8925,10 @@
         <v>320700</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10341000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>32.2451</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10341000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -8943,10 +8943,10 @@
         <v>342000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12640300</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>36.9599</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12640300</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -8960,10 +8960,10 @@
         <v>345340</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11408200</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>33.03469999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11408200</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -8977,10 +8977,10 @@
         <v>350400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13390000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>38.2135</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13390000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -8994,10 +8994,10 @@
         <v>306000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12160800</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>39.7412</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12160800</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -9011,10 +9011,10 @@
         <v>184000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7801500</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>42.3995</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7801500</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -9028,10 +9028,10 @@
         <v>154000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3443000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>22.3571</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3443000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -9045,10 +9045,10 @@
         <v>188500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4268100</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>22.6424</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4268100</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -9380,7 +9380,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9459,10 +9459,10 @@
         <v>1638400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>93981770</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>57.3619</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>93981770</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1570.88</v>
@@ -9481,10 +9481,10 @@
         <v>1427200</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>92162730</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>64.5759</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>92162730</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>826.76</v>
@@ -9503,10 +9503,10 @@
         <v>1369600</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>66725460</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>48.7189</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>66725460</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>697.51</v>
@@ -9525,10 +9525,10 @@
         <v>1714135</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>74968070</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>43.7352</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>74968070</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.01</v>
@@ -9547,10 +9547,10 @@
         <v>1835085</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>131002173</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>71.3875</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>131002173</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>168.99</v>
@@ -9569,10 +9569,10 @@
         <v>1790208</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>135073799</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>75.4515</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>135073799</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1148.14</v>
@@ -9591,10 +9591,10 @@
         <v>1403520</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>93088464</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>66.325</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>93088464</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4718.13</v>
@@ -9613,10 +9613,10 @@
         <v>1433120</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>94138465</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>65.68780000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>94138465</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>10848.11</v>
@@ -9635,10 +9635,10 @@
         <v>1400748</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>94138465</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>67.2059</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>94138465</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>9817.969999999999</v>
@@ -9657,10 +9657,10 @@
         <v>1353025</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>103697005</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>76.6408</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>103697005</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>9929.120000000001</v>
@@ -9679,10 +9679,10 @@
         <v>1321595</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>100095580</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>75.7385</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>100095580</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -9697,10 +9697,10 @@
         <v>1282082</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>98400465</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>76.7505</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>98400465</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -9715,10 +9715,10 @@
         <v>1259240</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>95950416</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>76.19710000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>95950416</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -9733,10 +9733,10 @@
         <v>1009583</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>68807800</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>68.15469999999999</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>68807800</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -9751,10 +9751,10 @@
         <v>963646</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>66816446</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>69.33710000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>66816446</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -9769,10 +9769,10 @@
         <v>1054108</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>73501611</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>69.7287</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>73501611</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -9787,10 +9787,10 @@
         <v>1010287</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>64365482</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>63.7101</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>64365482</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -9805,10 +9805,10 @@
         <v>965333</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>47658097</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>49.3696</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>47658097</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>1067244</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>49586360</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>46.4621</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>49586360</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -9841,10 +9841,10 @@
         <v>1121897</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>64995741</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>57.93380000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>64995741</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -9859,10 +9859,10 @@
         <v>1139289</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>74258521</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>65.1797</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>74258521</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -9877,10 +9877,10 @@
         <v>1011169</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>60012977</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>59.3501</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>60012977</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -9895,10 +9895,10 @@
         <v>877023</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>49562886</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>56.5126</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>49562886</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -9913,10 +9913,10 @@
         <v>913639</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>54052125</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>59.1614</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>54052125</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -9931,10 +9931,10 @@
         <v>917532</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>50331567</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>54.8554</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>50331567</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -9949,10 +9949,10 @@
         <v>943580</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>43464950</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>46.0639</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>43464950</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -9967,10 +9967,10 @@
         <v>980261</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>56393460</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>57.529</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>56393460</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -9985,10 +9985,10 @@
         <v>985004</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>57973530</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>58.8561</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>57973530</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10003,10 +10003,10 @@
         <v>922705</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>50597340</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>54.8359</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>50597340</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10021,10 +10021,10 @@
         <v>799539</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>37822874</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>47.3059</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>37822874</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10039,10 +10039,10 @@
         <v>991589</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>40289117</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>40.6309</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>40289117</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10057,10 +10057,10 @@
         <v>916359</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>47953605</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>52.3306</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>47953605</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10075,10 +10075,10 @@
         <v>782312</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>40948517</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>52.3429</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>40948517</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10093,10 +10093,10 @@
         <v>686400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>33561000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>48.8942</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>33561000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -10111,10 +10111,10 @@
         <v>659520</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>36668000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>55.598</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>36668000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -10129,10 +10129,10 @@
         <v>570634</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>27191184</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>47.6508</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>27191184</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -10147,10 +10147,10 @@
         <v>520153</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>24449936</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>47.00530000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>24449936</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -10165,10 +10165,10 @@
         <v>545981</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>24093168</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>44.1282</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>24093168</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -10183,10 +10183,10 @@
         <v>531048</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>25055024</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>47.1803</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>25055024</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -10201,10 +10201,10 @@
         <v>535902</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>23869488</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>44.5408</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>23869488</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -10219,10 +10219,10 @@
         <v>577160</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>24407408</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>42.2888</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>24407408</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -10237,10 +10237,10 @@
         <v>613316</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>30200000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>49.2405</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>30200000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -10255,10 +10255,10 @@
         <v>456524</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>19853664</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>43.4888</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>19853664</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -10273,10 +10273,10 @@
         <v>425600</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12826662</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>30.1378</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12826662</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -10291,10 +10291,10 @@
         <v>504320</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>20560528</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>40.76880000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>20560528</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -10309,10 +10309,10 @@
         <v>559680</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18941216</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>33.8429</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>18941216</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -10327,10 +10327,10 @@
         <v>494080</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>26094448</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>52.8142</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>26094448</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -10345,10 +10345,10 @@
         <v>373600</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>19909744</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>53.2916</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>19909744</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -10363,10 +10363,10 @@
         <v>303200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>14592300</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>48.1276</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>14592300</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -10381,10 +10381,10 @@
         <v>258609</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13338800</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>51.579</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13338800</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -10399,10 +10399,10 @@
         <v>181280</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9513000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>52.4768</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9513000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -10417,10 +10417,10 @@
         <v>158560</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5926000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>37.3739</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5926000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -10435,10 +10435,10 @@
         <v>137920</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6586000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>47.75230000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6586000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -10453,10 +10453,10 @@
         <v>118240</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5102000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>43.1495</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5102000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -10471,10 +10471,10 @@
         <v>103360</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4399000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>42.56</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4399000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -10489,10 +10489,10 @@
         <v>71680</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2379000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>33.1892</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2379000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -10507,10 +10507,10 @@
         <v>57760</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2535000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>43.8885</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2535000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -10524,10 +10524,10 @@
         <v>83680</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3045000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>36.3886</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3045000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -10541,10 +10541,10 @@
         <v>85120</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3913000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>45.9704</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3913000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -10558,10 +10558,10 @@
         <v>72320</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2387000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>33.0061</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2387000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -10575,10 +10575,10 @@
         <v>55200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1695000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>30.7065</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1695000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -10592,10 +10592,10 @@
         <v>60000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>33</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1980000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -10609,10 +10609,10 @@
         <v>63000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>31.746</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -10944,7 +10944,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11023,10 +11023,10 @@
         <v>1180280</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>87637669</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>74.25160000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>87637669</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11043,10 +11043,10 @@
         <v>1318837</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>87981135</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>66.71119999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>87981135</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>7.79</v>
@@ -11065,10 +11065,10 @@
         <v>1260291</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>88650593</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>70.34139999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>88650593</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11085,10 +11085,10 @@
         <v>1165030</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>81009261</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>69.53410000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>81009261</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>10.04</v>
@@ -11107,10 +11107,10 @@
         <v>1039769</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>66379581</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>63.8407</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>66379581</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0</v>
@@ -11129,10 +11129,10 @@
         <v>1101946</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>67173975</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>60.9594</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>67173975</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11149,10 +11149,10 @@
         <v>1341781</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>83332740</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>62.1061</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>83332740</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.08</v>
@@ -11171,10 +11171,10 @@
         <v>1217508</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>75482253</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>61.9973</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>75482253</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -11191,10 +11191,10 @@
         <v>1131476</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>65482334</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>57.8734</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>65482334</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -11211,10 +11211,10 @@
         <v>1140492</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>62826458</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>55.0872</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>62826458</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -11231,10 +11231,10 @@
         <v>1172352</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>67460094</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>57.5425</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>67460094</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -11249,10 +11249,10 @@
         <v>1057600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>58397000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>55.2165</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>58397000</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -11267,10 +11267,10 @@
         <v>987700</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>55308500</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>55.9973</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>55308500</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -11285,10 +11285,10 @@
         <v>942800</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>49372900</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>52.3684</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>49372900</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -11303,10 +11303,10 @@
         <v>1029400</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>50045400</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>48.6161</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>50045400</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -11321,10 +11321,10 @@
         <v>1241300</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>63920000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>51.4944</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>63920000</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -11339,10 +11339,10 @@
         <v>1028800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>54741600</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>53.2092</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>54741600</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -11357,10 +11357,10 @@
         <v>907300</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>44665500</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>49.229</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>44665500</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -11375,10 +11375,10 @@
         <v>966400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>47244100</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>48.8867</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>47244100</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -11393,10 +11393,10 @@
         <v>1074500</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>53820000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>50.0884</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>53820000</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -11411,10 +11411,10 @@
         <v>1099600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>52055800</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>47.3407</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>52055800</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -11429,10 +11429,10 @@
         <v>999700</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>48041600</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>48.056</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>48041600</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -11447,10 +11447,10 @@
         <v>960800</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>43606300</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>45.3854</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>43606300</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -11465,10 +11465,10 @@
         <v>1009800</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>46332600</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>45.8829</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>46332600</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -11483,10 +11483,10 @@
         <v>1155100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>55191100</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>47.7804</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>55191100</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -11501,10 +11501,10 @@
         <v>1056200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>53104200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>50.2785</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>53104200</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -11519,10 +11519,10 @@
         <v>964500</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>41998400</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>43.5442</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>41998400</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -11537,10 +11537,10 @@
         <v>963100</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>45229700</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>46.9626</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>45229700</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -11555,10 +11555,10 @@
         <v>1009000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>47168400</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>46.74769999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>47168400</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -11573,10 +11573,10 @@
         <v>962800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>44427000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>46.1435</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>44427000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -11591,10 +11591,10 @@
         <v>884600</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>38058896</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>43.0238</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>38058896</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -11609,10 +11609,10 @@
         <v>896100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>38864896</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>43.37119999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>38864896</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -11627,10 +11627,10 @@
         <v>883800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>35988704</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>40.7204</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>35988704</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -11645,10 +11645,10 @@
         <v>854300</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>35493600</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>41.547</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>35493600</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -11663,10 +11663,10 @@
         <v>876900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>36975696</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>42.1664</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>36975696</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -11681,10 +11681,10 @@
         <v>841600</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>33028800</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>39.2452</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>33028800</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -11699,10 +11699,10 @@
         <v>762000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>43608000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>57.2283</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>43608000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -11717,10 +11717,10 @@
         <v>779800</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>27856304</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>35.7224</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>27856304</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -11735,10 +11735,10 @@
         <v>903600</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>32139600</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>35.5684</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>32139600</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -11753,10 +11753,10 @@
         <v>896500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>34287296</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>38.2457</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>34287296</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -11771,10 +11771,10 @@
         <v>911700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>32533504</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>35.6844</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>32533504</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -11789,10 +11789,10 @@
         <v>946700</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>36579696</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>38.6392</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>36579696</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -11807,10 +11807,10 @@
         <v>824700</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>32359408</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>39.2378</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>32359408</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -11825,10 +11825,10 @@
         <v>718500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>27497696</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>38.271</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>27497696</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -11843,10 +11843,10 @@
         <v>752500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>27325504</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>36.313</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>27325504</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -11861,10 +11861,10 @@
         <v>822500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>30076608</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>36.5673</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>30076608</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -11879,10 +11879,10 @@
         <v>787827</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>29522960</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>37.4739</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>29522960</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -11897,10 +11897,10 @@
         <v>699830</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>25546640</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>36.5041</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>25546640</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -11915,10 +11915,10 @@
         <v>672818</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>21242000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>31.5717</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>21242000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -11933,10 +11933,10 @@
         <v>645500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>23910496</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>37.0418</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>23910496</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -11951,10 +11951,10 @@
         <v>533400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>19947104</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>37.3961</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>19947104</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -11969,10 +11969,10 @@
         <v>552400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>19963408</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>36.1394</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>19963408</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -11987,10 +11987,10 @@
         <v>636000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>23167008</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>36.4261</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>23167008</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -12005,10 +12005,10 @@
         <v>620000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>26369504</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>42.5315</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>26369504</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -12023,10 +12023,10 @@
         <v>540700</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>21971008</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>40.6344</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>21971008</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -12041,10 +12041,10 @@
         <v>503800</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>18659008</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>37.0365</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>18659008</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -12059,10 +12059,10 @@
         <v>649500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>21982208</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>33.84480000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>21982208</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -12076,10 +12076,10 @@
         <v>597300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>22309408</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>37.3504</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>22309408</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -12093,10 +12093,10 @@
         <v>503000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>18667008</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>37.1113</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>18667008</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -12110,10 +12110,10 @@
         <v>477500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>16139000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>33.799</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>16139000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -12127,10 +12127,10 @@
         <v>531000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>18438000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>34.7232</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>18438000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -12144,10 +12144,10 @@
         <v>444300</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>14356700</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>32.3131</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>14356700</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -12161,10 +12161,10 @@
         <v>388100</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11640000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>29.9923</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11640000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
